--- a/CS342Logbook.xlsx
+++ b/CS342Logbook.xlsx
@@ -124,7 +124,7 @@
     <t xml:space="preserve">thread.c</t>
   </si>
   <si>
-    <t xml:space="preserve">thread_set_priority() </t>
+    <t xml:space="preserve">thread_set_priority() thread_get_priority() </t>
   </si>
   <si>
     <t xml:space="preserve">16 of 50 tests still FAIL</t>
@@ -279,26 +279,26 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.63967611336032"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.57085020242915"/>
   </cols>

--- a/CS342Logbook.xlsx
+++ b/CS342Logbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t xml:space="preserve">Session</t>
   </si>
@@ -76,75 +76,64 @@
     <t xml:space="preserve">Tag used to commit work in repository</t>
   </si>
   <si>
-    <t xml:space="preserve">group05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC, AR, JK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userprog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">process.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc()</t>
+    <t xml:space="preserve">group41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HV, AR, UD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4HOURS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T02</t>
   </si>
   <si>
     <t xml:space="preserve">threads</t>
   </si>
   <si>
-    <t xml:space="preserve">thread.h</t>
+    <t xml:space="preserve">thread.c synch.c synch.h thread.h </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thread_set_priority() thread_get_priority() sema_up sema_down </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thread.c synch.c synch.h thread.h fixedpoint.h</t>
   </si>
   <si>
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">30 of 50 tests still FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-Aug-20-T01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HV, AR, UD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4HOURS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thread.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thread_set_priority() thread_get_priority() </t>
-  </si>
-  <si>
     <t xml:space="preserve">16 of 50 tests still FAIL</t>
   </si>
   <si>
     <t xml:space="preserve">T02 TASK 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lock acquire lock release cond_wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some more changes for t02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD\-MMMM\-YYYY;@"/>
     <numFmt numFmtId="166" formatCode="H:MM:SS\ AM/PM;@"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
     <numFmt numFmtId="168" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -175,6 +164,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +213,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,6 +251,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,29 +279,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.57085020242915"/>
   </cols>
@@ -384,61 +387,12 @@
       </c>
     </row>
     <row r="3" s="5" customFormat="true" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>42967</v>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="N3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>42975</v>
@@ -447,27 +401,27 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="J5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="0" t="s">
@@ -483,10 +437,60 @@
         <v>3</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>42976</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/CS342Logbook.xlsx
+++ b/CS342Logbook.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Session</t>
   </si>
@@ -82,13 +82,13 @@
     <t>threads</t>
   </si>
   <si>
-    <t xml:space="preserve">thread.c synch.c synch.h thread.h </t>
+    <t xml:space="preserve">thread.c </t>
   </si>
   <si>
     <t xml:space="preserve">thread_set_priority() thread_get_priority() sema_up sema_down </t>
   </si>
   <si>
-    <t>thread.c synch.c synch.h thread.h fixedpoint.h</t>
+    <t xml:space="preserve">synch.c </t>
   </si>
   <si>
     <t>N/A</t>
@@ -103,9 +103,15 @@
     <t>3 Hours</t>
   </si>
   <si>
+    <t>thread.c</t>
+  </si>
+  <si>
     <t>lock acquire lock release cond_wait</t>
   </si>
   <si>
+    <t>synch.c</t>
+  </si>
+  <si>
     <t>error</t>
   </si>
   <si>
@@ -118,12 +124,12 @@
     <t>30/08/2017</t>
   </si>
   <si>
-    <t>thread.c synch.c synch.h thread.h alarm.c</t>
-  </si>
-  <si>
     <t xml:space="preserve">sema_up sema_down lock_acquire lock_release cond_wait </t>
   </si>
   <si>
+    <t>Threads</t>
+  </si>
+  <si>
     <t>Around 150</t>
   </si>
   <si>
@@ -139,9 +145,6 @@
     <t>4Hours</t>
   </si>
   <si>
-    <t>thread.c synch.c synch.h thread.h</t>
-  </si>
-  <si>
     <t>7 OF 27 TESTS FAIL</t>
   </si>
   <si>
@@ -155,19 +158,50 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 41 </t>
+  </si>
+  <si>
+    <t>4 Hours</t>
+  </si>
+  <si>
+    <t>thread_calculate_load_avg() thread_get_recent_cpu()</t>
+  </si>
+  <si>
+    <t>devices</t>
+  </si>
+  <si>
+    <t>timer.c</t>
+  </si>
+  <si>
+    <t>timer_interrupt</t>
+  </si>
+  <si>
+    <t>6 OF 27 TESTS FAIL</t>
+  </si>
+  <si>
+    <t>T03 task 01</t>
+  </si>
+  <si>
+    <t>2 Hours</t>
+  </si>
+  <si>
+    <t>thread_calculate_recent_cpu() thread_calculate_priority()</t>
+  </si>
+  <si>
+    <t>thread_calculate_recent_cpu_for_all() thread_calculate_priority_for_all()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="&quot;DD-&quot;mmmm&quot;-YYYY&quot;"/>
-    <numFmt numFmtId="60" formatCode="h:mm:&quot;SS &quot;AM/PM"/>
-    <numFmt numFmtId="61" formatCode="&quot;DD&quot;/mm/&quot;YY&quot;"/>
-    <numFmt numFmtId="62" formatCode="hh:mm:&quot;SS&quot;"/>
-    <numFmt numFmtId="63" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="59" formatCode="&quot;DD&quot;/mm/&quot;YY&quot;"/>
+    <numFmt numFmtId="60" formatCode="hh:mm:&quot;SS&quot;"/>
+    <numFmt numFmtId="61" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -200,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,13 +257,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -245,22 +316,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="62" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -269,7 +334,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="63" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -428,13 +502,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -533,10 +601,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -791,13 +859,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1110,10 +1172,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1382,11 +1444,11 @@
     <col min="10" max="10" width="13.6719" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.6719" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6719" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6719" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85156" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1719" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.3516" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.8516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1719" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.8516" style="1" customWidth="1"/>
     <col min="18" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1417,7 +1479,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" ht="84" customHeight="1">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
@@ -1470,53 +1532,119 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="44.25" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5">
+        <v>42975</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.02083333333333337</v>
+      </c>
+      <c r="D3" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="M3" s="7">
+        <v>15</v>
+      </c>
+      <c r="N3" s="7">
+        <v>9</v>
+      </c>
+      <c r="O3" s="7">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s" s="4">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="A4" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>42976</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D4" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s" s="4">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8">
-        <v>42975</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>36</v>
       </c>
       <c r="C5" s="9">
-        <v>0.02083333333333337</v>
+        <v>42981.75</v>
       </c>
       <c r="D5" t="s" s="4">
         <v>19</v>
@@ -1531,51 +1659,49 @@
         <v>22</v>
       </c>
       <c r="H5" t="s" s="4">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s" s="4">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s" s="4">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="M5" s="10">
-        <v>15</v>
-      </c>
-      <c r="N5" s="10">
-        <v>9</v>
-      </c>
-      <c r="O5" s="10">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s" s="4">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s" s="4">
+        <v>40</v>
       </c>
       <c r="P5" t="s" s="4">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="Q5" t="s" s="4">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="B6" s="8">
-        <v>42976</v>
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>42</v>
       </c>
       <c r="C6" s="9">
-        <v>0.25</v>
+        <v>42981.916666666664</v>
       </c>
       <c r="D6" t="s" s="4">
         <v>19</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="4">
         <v>21</v>
@@ -1584,199 +1710,201 @@
         <v>22</v>
       </c>
       <c r="H6" t="s" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s" s="4">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="10">
-        <v>50</v>
-      </c>
-      <c r="N6" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="O6" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
+        <v>12</v>
       </c>
       <c r="P6" t="s" s="4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q6" t="s" s="4">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="C7" s="11">
-        <v>42981.75</v>
+        <v>35</v>
+      </c>
+      <c r="B7" s="11">
+        <v>42775</v>
+      </c>
+      <c r="C7" s="9">
+        <v>42981.791666666664</v>
       </c>
       <c r="D7" t="s" s="4">
         <v>19</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s" s="4">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s" s="4">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="J7" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s" s="4">
+        <v>48</v>
+      </c>
       <c r="M7" t="s" s="4">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N7" t="s" s="4">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O7" t="s" s="4">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P7" t="s" s="4">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Q7" t="s" s="4">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="C8" s="11">
-        <v>42981.916666666664</v>
+        <v>49</v>
+      </c>
+      <c r="B8" s="11">
+        <v>42864</v>
+      </c>
+      <c r="C8" s="9">
+        <v>42983.416666666664</v>
       </c>
       <c r="D8" t="s" s="4">
         <v>19</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s" s="4">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s" s="4">
         <v>22</v>
       </c>
       <c r="H8" t="s" s="4">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="J8" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="M8" s="10">
+        <v>50</v>
+      </c>
+      <c r="N8" s="10">
+        <v>6</v>
+      </c>
+      <c r="O8" s="10">
+        <v>1</v>
       </c>
       <c r="P8" t="s" s="4">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Q8" t="s" s="4">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B9" s="13">
-        <v>42775</v>
-      </c>
-      <c r="C9" s="11">
-        <v>42981.791666666664</v>
+        <v>35</v>
+      </c>
+      <c r="B9" s="11">
+        <v>42895</v>
+      </c>
+      <c r="C9" s="9">
+        <v>42984.416666666664</v>
       </c>
       <c r="D9" t="s" s="4">
         <v>19</v>
       </c>
       <c r="E9" t="s" s="4">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s" s="4">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s" s="4">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s" s="4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="4">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="M9" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="N9" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="O9" t="s" s="4">
-        <v>47</v>
-      </c>
-      <c r="P9" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="Q9" t="s" s="4">
-        <v>46</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/CS342Logbook.xlsx
+++ b/CS342Logbook.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Session</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>thread_calculate_recent_cpu_for_all() thread_calculate_priority_for_all()</t>
+  </si>
+  <si>
+    <t>4 OF 27 TESTS FAIL</t>
+  </si>
+  <si>
+    <t>load-60 and load_avg</t>
   </si>
 </sst>
 </file>
@@ -1881,11 +1887,21 @@
       <c r="L9" t="s" s="4">
         <v>59</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="M9" s="10">
+        <v>100</v>
+      </c>
+      <c r="N9" s="10">
+        <v>4</v>
+      </c>
+      <c r="O9" s="10">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="Q9" t="s" s="4">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="12"/>
@@ -1908,10 +1924,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/CS342Logbook.xlsx
+++ b/CS342Logbook.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>Session</t>
   </si>
@@ -82,13 +82,13 @@
     <t>threads</t>
   </si>
   <si>
-    <t xml:space="preserve">thread.c </t>
+    <t xml:space="preserve">thread.c synch.c synch.h thread.h </t>
   </si>
   <si>
     <t xml:space="preserve">thread_set_priority() thread_get_priority() sema_up sema_down </t>
   </si>
   <si>
-    <t xml:space="preserve">synch.c </t>
+    <t>thread.c synch.c synch.h thread.h fixedpoint.h</t>
   </si>
   <si>
     <t>N/A</t>
@@ -103,100 +103,130 @@
     <t>3 Hours</t>
   </si>
   <si>
+    <t>lock acquire lock release cond_wait</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>some more changes for t02</t>
+  </si>
+  <si>
+    <t>Group 41</t>
+  </si>
+  <si>
+    <t>30/08/2017</t>
+  </si>
+  <si>
+    <t>thread.c synch.c synch.h thread.h alarm.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sema_up sema_down lock_acquire lock_release cond_wait </t>
+  </si>
+  <si>
+    <t>Around 150</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>FEW MORE CHANGES</t>
+  </si>
+  <si>
+    <t>31/08/2017</t>
+  </si>
+  <si>
+    <t>4Hours</t>
+  </si>
+  <si>
+    <t>thread.c synch.c synch.h thread.h</t>
+  </si>
+  <si>
+    <t>7 OF 27 TESTS FAIL</t>
+  </si>
+  <si>
+    <t>2Hours</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>Read theory</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 41 </t>
+  </si>
+  <si>
+    <t>4 Hours</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>thread.c fixed-point.h thread.h</t>
+  </si>
+  <si>
+    <t>thread_calculate_load_avg() thread_get_recent_cpu()</t>
+  </si>
+  <si>
     <t>thread.c</t>
   </si>
   <si>
-    <t>lock acquire lock release cond_wait</t>
+    <t>timer_interrupt</t>
+  </si>
+  <si>
+    <t>6 OF 27 TESTS FAIL</t>
+  </si>
+  <si>
+    <t>T03 task 01</t>
+  </si>
+  <si>
+    <t>3Hours</t>
+  </si>
+  <si>
+    <t>thread_calculate_recent_cpu() thread_calculate_priority()</t>
+  </si>
+  <si>
+    <t>thread_calculate_recent_cpu_for_all() thread_calculate_priority_for_all()</t>
+  </si>
+  <si>
+    <t>4 OF 27 TESTS FAIL</t>
+  </si>
+  <si>
+    <t>Load-60 and load_avg</t>
+  </si>
+  <si>
+    <t>thread_set_priority_for_all()</t>
+  </si>
+  <si>
+    <t>devices</t>
+  </si>
+  <si>
+    <t>timer.c</t>
+  </si>
+  <si>
+    <t>1 OF 27 TESTS FAIL</t>
+  </si>
+  <si>
+    <t>Queue scheduling</t>
   </si>
   <si>
     <t>synch.c</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>some more changes for t02</t>
-  </si>
-  <si>
-    <t>Group 41</t>
-  </si>
-  <si>
-    <t>30/08/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sema_up sema_down lock_acquire lock_release cond_wait </t>
-  </si>
-  <si>
-    <t>Threads</t>
-  </si>
-  <si>
-    <t>Around 150</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>FEW MORE CHANGES</t>
-  </si>
-  <si>
-    <t>31/08/2017</t>
-  </si>
-  <si>
-    <t>4Hours</t>
-  </si>
-  <si>
-    <t>7 OF 27 TESTS FAIL</t>
-  </si>
-  <si>
-    <t>2Hours</t>
-  </si>
-  <si>
-    <t>T03</t>
-  </si>
-  <si>
-    <t>Read theory</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group 41 </t>
-  </si>
-  <si>
-    <t>4 Hours</t>
-  </si>
-  <si>
-    <t>thread_calculate_load_avg() thread_get_recent_cpu()</t>
-  </si>
-  <si>
-    <t>devices</t>
-  </si>
-  <si>
-    <t>timer.c</t>
-  </si>
-  <si>
-    <t>timer_interrupt</t>
-  </si>
-  <si>
-    <t>6 OF 27 TESTS FAIL</t>
-  </si>
-  <si>
-    <t>T03 task 01</t>
-  </si>
-  <si>
-    <t>2 Hours</t>
-  </si>
-  <si>
-    <t>thread_calculate_recent_cpu() thread_calculate_priority()</t>
-  </si>
-  <si>
-    <t>thread_calculate_recent_cpu_for_all() thread_calculate_priority_for_all()</t>
-  </si>
-  <si>
-    <t>4 OF 27 TESTS FAIL</t>
-  </si>
-  <si>
-    <t>load-60 and load_avg</t>
+    <t>Lock functions</t>
+  </si>
+  <si>
+    <t>Sema function</t>
+  </si>
+  <si>
+    <t>All 27 tests passed</t>
+  </si>
+  <si>
+    <t>All tests passed</t>
   </si>
 </sst>
 </file>
@@ -240,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -263,50 +293,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -341,15 +334,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="61" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1432,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1450,11 +1434,11 @@
     <col min="10" max="10" width="13.6719" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.6719" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85156" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1719" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.91406" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1016" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.3516" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.8516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.8516" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.7344" style="1" customWidth="1"/>
     <col min="18" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1614,40 +1598,40 @@
         <v>22</v>
       </c>
       <c r="H4" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s" s="4">
         <v>30</v>
-      </c>
-      <c r="I4" t="s" s="4">
-        <v>31</v>
       </c>
       <c r="J4" t="s" s="4">
         <v>22</v>
       </c>
       <c r="K4" t="s" s="4">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="7">
         <v>50</v>
       </c>
       <c r="N4" t="s" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s" s="4">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9">
         <v>42981.75</v>
@@ -1665,40 +1649,36 @@
         <v>22</v>
       </c>
       <c r="H5" t="s" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s" s="4">
-        <v>32</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="P5" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s" s="4">
         <v>39</v>
-      </c>
-      <c r="N5" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="O5" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="P5" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="Q5" t="s" s="4">
-        <v>41</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="9">
         <v>42981.916666666664</v>
@@ -1707,7 +1687,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s" s="4">
         <v>21</v>
@@ -1716,20 +1696,16 @@
         <v>22</v>
       </c>
       <c r="H6" t="s" s="4">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s" s="4">
-        <v>32</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" t="s" s="4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N6" s="10">
         <v>0</v>
@@ -1738,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="P6" t="s" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="s" s="4">
         <v>21</v>
@@ -1746,7 +1722,7 @@
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11">
         <v>42775</v>
@@ -1758,48 +1734,48 @@
         <v>19</v>
       </c>
       <c r="E7" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="F7" t="s" s="4">
+      <c r="G7" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="G7" t="s" s="4">
+      <c r="H7" t="s" s="4">
         <v>47</v>
       </c>
-      <c r="H7" t="s" s="4">
-        <v>48</v>
-      </c>
       <c r="I7" t="s" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7" t="s" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O7" t="s" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P7" t="s" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="11">
         <v>42864</v>
@@ -1811,22 +1787,22 @@
         <v>19</v>
       </c>
       <c r="E8" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s" s="4">
         <v>50</v>
       </c>
-      <c r="F8" t="s" s="4">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s" s="4">
+      <c r="H8" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s" s="4">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s" s="4">
         <v>22</v>
-      </c>
-      <c r="H8" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s" s="4">
-        <v>52</v>
       </c>
       <c r="K8" t="s" s="4">
         <v>53</v>
@@ -1852,13 +1828,13 @@
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="11">
         <v>42895</v>
       </c>
       <c r="C9" s="9">
-        <v>42984.416666666664</v>
+        <v>42983.75</v>
       </c>
       <c r="D9" t="s" s="4">
         <v>19</v>
@@ -1867,22 +1843,22 @@
         <v>57</v>
       </c>
       <c r="F9" t="s" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s" s="4">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s" s="4">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s" s="4">
         <v>58</v>
       </c>
       <c r="J9" t="s" s="4">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s" s="4">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s" s="4">
         <v>59</v>
@@ -1894,7 +1870,7 @@
         <v>4</v>
       </c>
       <c r="O9" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" t="s" s="4">
         <v>60</v>
@@ -1904,23 +1880,110 @@
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
+      <c r="A10" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11">
+        <v>42925</v>
+      </c>
+      <c r="C10" s="9">
+        <v>42989.916666666664</v>
+      </c>
+      <c r="D10" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s" s="4">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s" s="4">
+        <v>63</v>
+      </c>
+      <c r="K10" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s" s="4">
+        <v>54</v>
+      </c>
+      <c r="M10" s="10">
+        <v>15</v>
+      </c>
+      <c r="N10" s="10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10">
+        <v>6</v>
+      </c>
+      <c r="P10" t="s" s="4">
+        <v>65</v>
+      </c>
+      <c r="Q10" t="s" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="B11" s="11">
+        <v>42956</v>
+      </c>
+      <c r="C11" s="9">
+        <v>42989.791666666664</v>
+      </c>
+      <c r="D11" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s" s="4">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s" s="4">
+        <v>69</v>
+      </c>
+      <c r="M11" s="10">
+        <v>20</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <v>7</v>
+      </c>
+      <c r="P11" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="Q11" t="s" s="4">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/CS342Logbook.xlsx
+++ b/CS342Logbook.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>Session</t>
   </si>
@@ -227,6 +227,36 @@
   </si>
   <si>
     <t>All tests passed</t>
+  </si>
+  <si>
+    <t>25/09/2017</t>
+  </si>
+  <si>
+    <t>UP01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Setup for UP01 and Understanding of code</t>
+  </si>
+  <si>
+    <t>10/2/2017 14:00:00 AM</t>
+  </si>
+  <si>
+    <t>Userprog</t>
+  </si>
+  <si>
+    <t>process.c</t>
+  </si>
+  <si>
+    <t>start_process()</t>
+  </si>
+  <si>
+    <t>userprog</t>
+  </si>
+  <si>
+    <t>syscall.c</t>
+  </si>
+  <si>
+    <t>syscall_handler()</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1434,11 +1464,11 @@
     <col min="10" max="10" width="13.6719" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.6719" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.91406" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1016" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85156" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1719" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.3516" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.8516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.7344" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.8516" style="1" customWidth="1"/>
     <col min="18" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1985,12 +2015,108 @@
         <v>71</v>
       </c>
     </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>72</v>
+      </c>
+      <c r="C12" s="9">
+        <v>43010.875</v>
+      </c>
+      <c r="D12" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="B13" s="11">
+        <v>42776</v>
+      </c>
+      <c r="C13" t="s" s="4">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s" s="4">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G12:Q12"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/CS342Logbook.xlsx
+++ b/CS342Logbook.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>Session</t>
   </si>
@@ -238,7 +238,7 @@
     <t xml:space="preserve"> Setup for UP01 and Understanding of code</t>
   </si>
   <si>
-    <t>10/2/2017 14:00:00 AM</t>
+    <t>6Hours</t>
   </si>
   <si>
     <t>Userprog</t>
@@ -257,6 +257,30 @@
   </si>
   <si>
     <t>syscall_handler()</t>
+  </si>
+  <si>
+    <t>Passed args</t>
+  </si>
+  <si>
+    <t>1Hours</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>echo.c</t>
+  </si>
+  <si>
+    <t>test_stack()</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>UP01 passed</t>
+  </si>
+  <si>
+    <t>Logbook UP01 updated</t>
   </si>
 </sst>
 </file>
@@ -2055,14 +2079,14 @@
       <c r="B13" s="11">
         <v>42776</v>
       </c>
-      <c r="C13" t="s" s="4">
-        <v>75</v>
+      <c r="C13" s="9">
+        <v>43011.583333333336</v>
       </c>
       <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="4">
         <v>73</v>
@@ -2085,30 +2109,74 @@
       <c r="L13" t="s" s="4">
         <v>81</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="M13" s="10">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="O13" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="P13" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="Q13" t="s" s="4">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="A14" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="B14" s="11">
+        <v>42804</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43011.020833333336</v>
+      </c>
+      <c r="D14" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s" s="4">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s" s="4">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s" s="4">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s" s="4">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s" s="4">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="K14" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="L14" t="s" s="4">
+        <v>87</v>
+      </c>
+      <c r="M14" s="10">
+        <v>15</v>
+      </c>
+      <c r="N14" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="O14" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="P14" t="s" s="4">
+        <v>88</v>
+      </c>
+      <c r="Q14" t="s" s="4">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/CS342Logbook.xlsx
+++ b/CS342Logbook.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>Session</t>
   </si>
@@ -281,6 +281,27 @@
   </si>
   <si>
     <t>Logbook UP01 updated</t>
+  </si>
+  <si>
+    <t>Group41</t>
+  </si>
+  <si>
+    <t>1Hour</t>
+  </si>
+  <si>
+    <t>UP02</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>66 of 76 tests fail</t>
+  </si>
+  <si>
+    <t>66/76</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1493,7 +1514,18 @@
     <col min="15" max="15" width="11.3516" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.8516" style="1" customWidth="1"/>
     <col min="17" max="17" width="26.8516" style="1" customWidth="1"/>
-    <col min="18" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="18" max="18" width="26.8516" style="1" customWidth="1"/>
+    <col min="19" max="19" width="26.8516" style="1" customWidth="1"/>
+    <col min="20" max="20" width="26.8516" style="1" customWidth="1"/>
+    <col min="21" max="21" width="26.8516" style="1" customWidth="1"/>
+    <col min="22" max="22" width="26.8516" style="1" customWidth="1"/>
+    <col min="23" max="23" width="26.8516" style="1" customWidth="1"/>
+    <col min="24" max="24" width="26.8516" style="1" customWidth="1"/>
+    <col min="25" max="25" width="26.8516" style="1" customWidth="1"/>
+    <col min="26" max="26" width="26.8516" style="1" customWidth="1"/>
+    <col min="27" max="27" width="26.8516" style="1" customWidth="1"/>
+    <col min="28" max="28" width="26.8516" style="1" customWidth="1"/>
+    <col min="29" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" customHeight="1">
@@ -1522,6 +1554,17 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="4">
@@ -1575,6 +1618,17 @@
       <c r="Q2" t="s" s="4">
         <v>17</v>
       </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="4">
@@ -1628,6 +1682,17 @@
       <c r="Q3" t="s" s="4">
         <v>28</v>
       </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="4">
@@ -1679,6 +1744,17 @@
       <c r="Q4" t="s" s="4">
         <v>32</v>
       </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="4">
@@ -1726,6 +1802,17 @@
       <c r="Q5" t="s" s="4">
         <v>39</v>
       </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="4">
@@ -1773,6 +1860,17 @@
       <c r="Q6" t="s" s="4">
         <v>21</v>
       </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="4">
@@ -1826,6 +1924,17 @@
       <c r="Q7" t="s" s="4">
         <v>46</v>
       </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="4">
@@ -1879,6 +1988,17 @@
       <c r="Q8" t="s" s="4">
         <v>56</v>
       </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="4">
@@ -1932,6 +2052,17 @@
       <c r="Q9" t="s" s="4">
         <v>61</v>
       </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="4">
@@ -1985,6 +2116,17 @@
       <c r="Q10" t="s" s="4">
         <v>66</v>
       </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="4">
@@ -2038,6 +2180,17 @@
       <c r="Q11" t="s" s="4">
         <v>71</v>
       </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="4">
@@ -2071,6 +2224,17 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="4">
@@ -2124,6 +2288,17 @@
       <c r="Q13" t="s" s="4">
         <v>82</v>
       </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="4">
@@ -2133,7 +2308,7 @@
         <v>42804</v>
       </c>
       <c r="C14" s="9">
-        <v>43011.020833333336</v>
+        <v>43013.020833333336</v>
       </c>
       <c r="D14" t="s" s="4">
         <v>19</v>
@@ -2177,14 +2352,239 @@
       <c r="Q14" t="s" s="4">
         <v>89</v>
       </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="B15" s="11">
+        <v>42865</v>
+      </c>
+      <c r="C15" s="9">
+        <v>43013.166666666664</v>
+      </c>
+      <c r="D15" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="G15" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s" s="4">
+        <v>78</v>
+      </c>
+      <c r="J15" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="L15" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="M15" s="10">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s" s="4">
+        <v>93</v>
+      </c>
+      <c r="O15" t="s" s="4">
+        <v>94</v>
+      </c>
+      <c r="P15" t="s" s="4">
+        <v>95</v>
+      </c>
+      <c r="Q15" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G12:Q12"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G12:Q12"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/CS342Logbook.xlsx
+++ b/CS342Logbook.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>Session</t>
   </si>
@@ -283,9 +283,6 @@
     <t>Logbook UP01 updated</t>
   </si>
   <si>
-    <t>Group41</t>
-  </si>
-  <si>
     <t>1Hour</t>
   </si>
   <si>
@@ -302,6 +299,45 @@
   </si>
   <si>
     <t>66/76</t>
+  </si>
+  <si>
+    <t>2hours</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>No commit made</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>76 of 76 tests fail</t>
+  </si>
+  <si>
+    <t>sys_call handler</t>
+  </si>
+  <si>
+    <t>process_execute()</t>
+  </si>
+  <si>
+    <t>exception.c</t>
+  </si>
+  <si>
+    <t>pagefault()</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>40 of 76 tests fail</t>
+  </si>
+  <si>
+    <t>Interrupts and system calls</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2402,7 @@
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="s" s="4">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="B15" s="11">
         <v>42865</v>
@@ -2378,10 +2414,10 @@
         <v>19</v>
       </c>
       <c r="E15" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s" s="4">
         <v>91</v>
-      </c>
-      <c r="F15" t="s" s="4">
-        <v>92</v>
       </c>
       <c r="G15" t="s" s="4">
         <v>76</v>
@@ -2405,16 +2441,16 @@
         <v>10</v>
       </c>
       <c r="N15" t="s" s="4">
+        <v>92</v>
+      </c>
+      <c r="O15" t="s" s="4">
         <v>93</v>
       </c>
-      <c r="O15" t="s" s="4">
+      <c r="P15" t="s" s="4">
         <v>94</v>
       </c>
-      <c r="P15" t="s" s="4">
+      <c r="Q15" t="s" s="4">
         <v>95</v>
-      </c>
-      <c r="Q15" t="s" s="4">
-        <v>96</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2429,23 +2465,57 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="A16" t="s" s="4">
+        <v>48</v>
+      </c>
+      <c r="B16" s="11">
+        <v>42865</v>
+      </c>
+      <c r="C16" s="9">
+        <v>43015.875</v>
+      </c>
+      <c r="D16" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s" s="4">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="K16" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="L16" t="s" s="4">
+        <v>78</v>
+      </c>
+      <c r="M16" s="10">
+        <v>70</v>
+      </c>
+      <c r="N16" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="O16" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="P16" t="s" s="4">
+        <v>97</v>
+      </c>
+      <c r="Q16" t="s" s="4">
+        <v>98</v>
+      </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -2459,23 +2529,57 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="A17" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="B17" s="11">
+        <v>42896</v>
+      </c>
+      <c r="C17" s="9">
+        <v>43015.958333333336</v>
+      </c>
+      <c r="D17" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s" s="4">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s" s="4">
+        <v>81</v>
+      </c>
+      <c r="J17" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="K17" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="L17" t="s" s="4">
+        <v>78</v>
+      </c>
+      <c r="M17" s="10">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s" s="4">
+        <v>99</v>
+      </c>
+      <c r="O17" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="P17" t="s" s="4">
+        <v>101</v>
+      </c>
+      <c r="Q17" t="s" s="4">
+        <v>102</v>
+      </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -2489,23 +2593,57 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="A18" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="B18" s="11">
+        <v>42926</v>
+      </c>
+      <c r="C18" s="9">
+        <v>43015.083333333336</v>
+      </c>
+      <c r="D18" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s" s="4">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s" s="4">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s" s="4">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s" s="4">
+        <v>103</v>
+      </c>
+      <c r="J18" t="s" s="4">
+        <v>79</v>
+      </c>
+      <c r="K18" t="s" s="4">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s" s="4">
+        <v>105</v>
+      </c>
+      <c r="M18" s="10">
+        <v>35</v>
+      </c>
+      <c r="N18" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="O18" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="P18" t="s" s="4">
+        <v>107</v>
+      </c>
+      <c r="Q18" t="s" s="4">
+        <v>108</v>
+      </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -2580,11 +2718,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G12:Q12"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G12:Q12"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/CS342Logbook.xlsx
+++ b/CS342Logbook.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>Session</t>
   </si>
@@ -331,13 +331,22 @@
     <t>pagefault()</t>
   </si>
   <si>
-    <t>29</t>
+    <t>36</t>
   </si>
   <si>
     <t>40 of 76 tests fail</t>
   </si>
   <si>
     <t>Interrupts and system calls</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>Logbook updated</t>
+  </si>
+  <si>
+    <t>UP02 with logbook updated</t>
   </si>
 </sst>
 </file>
@@ -2657,23 +2666,47 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="A19" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11">
+        <v>43018</v>
+      </c>
+      <c r="C19" s="9">
+        <v>43018.020833333336</v>
+      </c>
+      <c r="D19" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s" s="4">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s" s="4">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s" s="4">
+        <v>110</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="O19" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="P19" t="s" s="4">
+        <v>107</v>
+      </c>
+      <c r="Q19" t="s" s="4">
+        <v>111</v>
+      </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -2717,12 +2750,13 @@
       <c r="AB20" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G12:Q12"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G12:Q12"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/CS342Logbook.xlsx
+++ b/CS342Logbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="147">
   <si>
     <t xml:space="preserve">Session</t>
   </si>
@@ -410,6 +410,57 @@
   </si>
   <si>
     <t xml:space="preserve">implemented remaining sys calls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys_remove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find_fd_elem_by_fd_in_process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 of 76 tests fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented sys_remove &amp; file lock init</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys_exec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">process_exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 of 76 tests fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added lock to read,write,open,close </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys_write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All 76 tests passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76 of 76 cases passed (added deny_write call)</t>
   </si>
 </sst>
 </file>
@@ -424,11 +475,12 @@
     <numFmt numFmtId="168" formatCode="HH:MM:SS"/>
     <numFmt numFmtId="169" formatCode="MM/DD/YYYY"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -446,59 +498,13 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,74 +513,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -593,7 +542,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -617,57 +566,41 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -675,95 +608,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -772,32 +629,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB1048576"/>
+  <dimension ref="A1:AB65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23:Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="17.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="17" style="1" width="33.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="29" style="1" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="257" style="0" width="11.13"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="28" min="17" style="1" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="256" min="29" style="1" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="10.9336734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2116,6 +1973,218 @@
         <v>129</v>
       </c>
     </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="10" t="n">
+        <v>0.489583333333333</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
@@ -2128,7 +2197,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/CS342Logbook.xlsx
+++ b/CS342Logbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="158">
   <si>
     <t xml:space="preserve">Session</t>
   </si>
@@ -461,19 +461,53 @@
   </si>
   <si>
     <t xml:space="preserve">76 of 76 cases passed (added deny_write call)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys_mmap,sys_munmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 of 109 tests failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM01 started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm_page_create,etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm_alloc_frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implemented page and frame tables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="HH:MM&quot;:SS&quot;"/>
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="HH:MM:SS"/>
     <numFmt numFmtId="169" formatCode="MM/DD/YYYY"/>
+    <numFmt numFmtId="170" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -567,7 +601,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -612,6 +646,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -631,30 +669,31 @@
   </sheetPr>
   <dimension ref="A1:AB65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23:Q26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="28" min="17" style="1" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="256" min="29" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="53.5918367346939"/>
+    <col collapsed="false" hidden="false" max="28" min="17" style="1" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="256" min="29" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2185,6 +2224,112 @@
         <v>146</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>43045</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>43046</v>
+      </c>
+      <c r="C28" s="10" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">

--- a/CS342Logbook.xlsx
+++ b/CS342Logbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="173">
   <si>
     <t xml:space="preserve">Session</t>
   </si>
@@ -494,6 +494,51 @@
   </si>
   <si>
     <t xml:space="preserve">implemented page and frame tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm_page_destroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm_free_frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 of 109 tests fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swap.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm_swap_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm_page_find_by_vaddr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmap.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vm_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">process_wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 of 109 tests fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/109</t>
   </si>
 </sst>
 </file>
@@ -509,7 +554,7 @@
     <numFmt numFmtId="169" formatCode="MM/DD/YYYY"/>
     <numFmt numFmtId="170" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -536,6 +581,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -601,7 +651,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -650,6 +700,26 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -669,31 +739,31 @@
   </sheetPr>
   <dimension ref="A1:AB65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="53.5918367346939"/>
-    <col collapsed="false" hidden="false" max="28" min="17" style="1" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="256" min="29" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="45.7091836734694"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="52.9183673469388"/>
+    <col collapsed="false" hidden="false" max="28" min="17" style="1" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="256" min="29" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2330,6 +2400,171 @@
         <v>157</v>
       </c>
     </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="13" t="n">
+        <v>43019</v>
+      </c>
+      <c r="C29" s="14" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="M29" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="N29" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="13" t="n">
+        <v>43080</v>
+      </c>
+      <c r="C30" s="14" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="M30" s="15" t="n">
+        <v>130</v>
+      </c>
+      <c r="N30" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="14" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="M31" s="15" t="n">
+        <v>210</v>
+      </c>
+      <c r="N31" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q31" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
